--- a/forwardprimer-v3_15.xlsx
+++ b/forwardprimer-v3_15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_15" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F1345-TAGTCTTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCTTCGATCGTCGGCAGCGTC</t>
+    <t>F1345-TACTGGTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTGGTTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F1346-TACGTAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTAGTGATCGTCGGCAGCGTC</t>
+    <t>F1346-TTGGTGATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTGATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F1347-ATCAGGACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGGACGTTCGTCGGCAGCGTC</t>
+    <t>F1347-GTGTACTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTACTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F1348-ATCAGCTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGCTCGATCGTCGGCAGCGTC</t>
+    <t>F1348-GAGAAGTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAAGTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F1349-ACTGTGTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGTGTCACTCGTCGGCAGCGTC</t>
+    <t>F1349-TAGAGTGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGTGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F1350-TGGTCCTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTCCTTGATCGTCGGCAGCGTC</t>
+    <t>F1350-CAAGTCAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTCAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F1351-CTACGTTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACGTTCCTTCGTCGGCAGCGTC</t>
+    <t>F1351-AGGTACACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTACACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F1352-AGCATCAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCATCAAGATCGTCGGCAGCGTC</t>
+    <t>F1352-ACGAACACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAACACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F1353-TTCAGGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGGAGAATCGTCGGCAGCGTC</t>
+    <t>F1353-ACAAGAGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGAGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F1354-TTGCACGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCACGATGTCGTCGGCAGCGTC</t>
+    <t>F1354-GTACTAGCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTAGCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F1355-ACTTCCTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTCCTCAGTCGTCGGCAGCGTC</t>
+    <t>F1355-TCACGTACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACGTACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F1356-CTTCAACACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAACACCTCGTCGGCAGCGTC</t>
+    <t>F1356-CAGTGCAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGCAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F1357-TCACTCTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCTGAATCGTCGGCAGCGTC</t>
+    <t>F1357-ATCTGGTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTGGTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F1358-GTAGCTAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCTAGTGTCGTCGGCAGCGTC</t>
+    <t>F1358-CTTGACTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGACTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F1359-GGTGAGAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGAGAAGATCGTCGGCAGCGTC</t>
+    <t>F1359-ACAGACGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGACGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F1360-GAGTACTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTACTACATCGTCGGCAGCGTC</t>
+    <t>F1360-TCATCCTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCCTACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F1361-TCACACTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACACTAGATCGTCGGCAGCGTC</t>
+    <t>F1361-GAGTTCAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTCAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F1362-CAGGTTCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGGTTCTGTTCGTCGGCAGCGTC</t>
+    <t>F1362-TGCTACTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTACTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F1363-TAGAGGAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGGAGATTCGTCGGCAGCGTC</t>
+    <t>F1363-GTGTGCTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGCTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F1364-TGATCTGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATCTGTAGTCGTCGGCAGCGTC</t>
+    <t>F1364-CTGACTGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGACTGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F1365-TTGTTGACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTTGACGTTCGTCGGCAGCGTC</t>
+    <t>F1365-GACTAGATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTAGATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F1366-GACCATGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACCATGCATTCGTCGGCAGCGTC</t>
+    <t>F1366-TGTCAACTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCAACTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F1367-GGAAGTCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGTCTCATCGTCGGCAGCGTC</t>
+    <t>F1367-CACACTAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACACTAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F1368-ACATGCAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGCAACGTCGTCGGCAGCGTC</t>
+    <t>F1368-ACACAGCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAGCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F1369-ATGCTTCGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTTCGTTTCGTCGGCAGCGTC</t>
+    <t>F1369-TCGTTGGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTTGGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F1370-CTGTACAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTACAGACTCGTCGGCAGCGTC</t>
+    <t>F1370-CTTCGTGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGTGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F1371-TCTTGCTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGCTACCTCGTCGGCAGCGTC</t>
+    <t>F1371-GAACGTTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACGTTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F1372-AGAGAGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAGATGTTCGTCGGCAGCGTC</t>
+    <t>F1372-ATGACCAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGACCAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F1373-CTCAACGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAACGTTCTCGTCGGCAGCGTC</t>
+    <t>F1373-AGTCTCTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTCTGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F1374-ACAGGATGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGGATGACTCGTCGGCAGCGTC</t>
+    <t>F1374-TGGTGACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGACTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F1375-TCTCTCAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTCAGTATCGTCGGCAGCGTC</t>
+    <t>F1375-ATCACTGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCACTGACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F1376-CAGCTGTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGCTGTCAATCGTCGGCAGCGTC</t>
+    <t>F1376-GCAGAACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAGAACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F1377-TGCACAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCACAGCTATCGTCGGCAGCGTC</t>
+    <t>F1377-ACGTACTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTACTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F1378-CAAGCTAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCTAGCTTCGTCGGCAGCGTC</t>
+    <t>F1378-ATCAGAGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAGAGTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F1379-TACGTCAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTCAAGCTCGTCGGCAGCGTC</t>
+    <t>F1379-GGTGTTCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTTCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F1380-AACCTGTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGTCGATCGTCGGCAGCGTC</t>
+    <t>F1380-AGTCTGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTGTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F1381-ACTCACAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCACAGCTTCGTCGGCAGCGTC</t>
+    <t>F1381-CATCGTACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCGTACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F1382-ACCTAGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGAACGTCGTCGGCAGCGTC</t>
+    <t>F1382-TAGTCGAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCGAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F1383-ACACACAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACACAACCTCGTCGGCAGCGTC</t>
+    <t>F1383-TACTACTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTACTTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F1384-GTTCTGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTGTACCTCGTCGGCAGCGTC</t>
+    <t>F1384-ATGAAGAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAAGAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F1385-TACAACGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAACGAGCTCGTCGGCAGCGTC</t>
+    <t>F1385-TTCCTGTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTGTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F1386-TGCATGTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCATGTCCATCGTCGGCAGCGTC</t>
+    <t>F1386-GAACGAAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACGAAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F1387-ACGAGAACTT</t>
+    <t>F1387-AGTCAGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAGAACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F1388-CAAGACAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGACAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F1389-TGACTCTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACTCTCCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F1390-CACATCATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACATCATCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F1391-GTCCATCGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCCATCGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F1392-CTTGTGTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTGTTGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1393-ACACACGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACACGTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F1394-GTCAGTAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGTAGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F1395-TCTAGTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGTCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F1396-ATCTGACGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTGACGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F1397-TGTAGGTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGGTGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F1398-TTGAACAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAACAGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F1399-GATGCAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGCAGGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F1400-AGACCTAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACCTAGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F1401-GAACACCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACACCTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F1402-GTCAAGAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAAGAACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F1403-TTCGTGTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTGTACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F1404-GACTTCCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTTCCTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F1405-ACGAGAACTT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACACGAGAACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F1388-TTGTGCTCGT</t>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F1406-TGGAGCTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGCTACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F1407-AAGTAGTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTAGTCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F1408-ACTGACACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGACACGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F1409-TTCACACTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACACTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F1410-CTTCAGACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAGACTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F1411-TGGAAGCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAAGCTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F1412-AGGTCAACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCAACTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F1413-ATGCAACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCAACTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F1414-ACTGAGTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGAGTCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F1415-GTGGAACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGGAACGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F1416-GAACAAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACAAGCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F1417-TGACCTGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACCTGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F1418-AAGTCCAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCCAAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F1419-CATCGACTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCGACTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F1420-TTGCTGTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTGTTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F1421-GACGTGTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACGTGTCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F1422-CCTCACTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTCACTCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F1423-GAACAGTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACAGTCCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F1424-TACTGCATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTGCATGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F1425-TAGGTGCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTGCTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F1426-ACACTGGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTGGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F1427-AGGTCTTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCTTCCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F1428-TCCATCCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCATCCTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F1429-AGAACTGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTGAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F1430-TTCACGTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACGTTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F1431-AACACTTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACTTCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>F1432-GCACATCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCACATCTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>F1433-AGAGTGAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTGAACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>F1434-GGATCTAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATCTAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>F1435-ACCAGCAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAGCAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>F1436-CGTCACATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTCACATGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>F1437-CAGATGATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGATGATGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>F1438-TTGTGCTCGT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTTGTGCTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F1389-TAGCAGTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAGTAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F1390-GAAGTACCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTACCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F1391-AACACGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACGAACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F1392-TTGTGACCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTGACCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F1393-CCATGGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCATGGTTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F1394-CGTCTTCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCTTCTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F1395-CAACACCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACACCATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F1396-AGAGTCGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTCGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F1397-ATGCTTGTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTTGTGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F1398-GGTTGACCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGACCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F1399-ACTCTCAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTCAGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F1400-TACATGCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACATGCTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F1401-TGCAACAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAACAGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F1402-TGACGTACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACGTACCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F1403-CATCACATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCACATCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F1404-ATCAAGTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAAGTCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F1405-ATCGTTCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTTCTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F1406-CTCTGCATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTGCATGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F1407-CAAGAAGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAAGAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F1408-CTACTGACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACTGACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F1409-GTCAACCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACCAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F1410-AGAGCTGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCTGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F1411-AACCATCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCATCTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F1412-GTGATGTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGATGTAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F1413-TGTCAGCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCAGCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F1414-AGTCGACTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGACTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F1415-AGGATGCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGATGCTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F1416-CAGAGTTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGTTGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F1417-GACTGTCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTGTCTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F1418-ACCATGTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCATGTCCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F1419-AGTTGAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGAGACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F1420-CTTGTCAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTCAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F1421-GAACCAACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCAACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F1422-ACACACCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACACCTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F1423-TGTCACACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCACACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F1424-CTGTTCGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTTCGTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F1425-ATGCTCAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTCAGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F1426-GTACCTACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACCTACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F1427-AGCATGACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCATGACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F1428-GAAGAGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGTCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F1429-TAGACACCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACACCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F1430-CTGACACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGACACGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F1431-TCCAACATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACATGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>F1432-TCTGGTCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGGTCATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>F1433-ACGAGGTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAGGTAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>F1434-AAGGAAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAAGTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>F1435-CGTGATGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGATGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>F1436-GAACCAAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCAAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>F1437-TTGAGTCTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGTCTCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>F1438-ATGCAGACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCAGACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F1439-CTGAGAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGAGCAATCGTCGGCAGCGTC</t>
+    <t>F1439-CAGAGACATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGACATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F1440-GTTGGACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGGACAACTCGTCGGCAGCGTC</t>
+    <t>F1440-TTCCAGATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAGATCATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
